--- a/Documentation/SCRUM/CST-247-SprintBackLog6.xlsx
+++ b/Documentation/SCRUM/CST-247-SprintBackLog6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick Torres\Desktop\VERSION CONTROL\Charp\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D19378-B8C7-427D-B482-4D55EA756BD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB4449-E8EA-480E-9F22-C407C934AD30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-450" windowWidth="14610" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>Feature</t>
   </si>
@@ -328,6 +328,21 @@
   </si>
   <si>
     <t>the user can easily find what to click</t>
+  </si>
+  <si>
+    <t>Security Filter</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Redirect non users to public pages</t>
+  </si>
+  <si>
+    <t>they cannot access proteced pages</t>
+  </si>
+  <si>
+    <t>MT / CL</t>
   </si>
 </sst>
 </file>
@@ -959,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2060"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="127" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="85" zoomScaleNormal="127" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,17 +1738,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="8">
+        <v>3</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
@@ -20006,59 +20032,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20287,25 +20274,60 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
   <xsnLocation/>
@@ -20315,24 +20337,27 @@
 </customXsn>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C58C9A5-73FD-4584-9B21-08A9AF34AC90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FAA445-20BA-4329-AAF0-BF18E64AEC37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA94A631-B201-423E-9AAD-FFB1AE5AC382}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39753616-0B3E-41EB-9E0A-2040F0C6F9A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20351,34 +20376,35 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA94A631-B201-423E-9AAD-FFB1AE5AC382}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C58C9A5-73FD-4584-9B21-08A9AF34AC90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FAA445-20BA-4329-AAF0-BF18E64AEC37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E617EB-972F-4476-BA7B-4CC77B3B2B6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B393AE3-5A9D-44FA-85EF-40555F213E14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E617EB-972F-4476-BA7B-4CC77B3B2B6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>